--- a/GameConfig/Datas/__enums__.xlsx
+++ b/GameConfig/Datas/__enums__.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="通用" sheetId="1" r:id="rId1"/>
+    <sheet name="道具品质" sheetId="2" r:id="rId2"/>
+    <sheet name="音效枚举" sheetId="3" r:id="rId3"/>
+    <sheet name="特效枚举" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -73,45 +89,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>item.EQuality</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>PURPLE</t>
-  </si>
-  <si>
-    <t>紫</t>
-  </si>
-  <si>
-    <t>紫色的</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
     <t>test.AccessFlag</t>
   </si>
   <si>
@@ -134,30 +111,104 @@
   </si>
   <si>
     <t>位标记使用示例</t>
+  </si>
+  <si>
+    <t>ColorQuality</t>
+  </si>
+  <si>
+    <t>COLOR_NONE</t>
+  </si>
+  <si>
+    <t>无定义颜色占位</t>
+  </si>
+  <si>
+    <t>COLOR_WHITE</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>COLOR_GREEN</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>COLOR_BLUE</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>COLOR_PURPLE</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>COLOR_ORANGE</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>COLOR_RED</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>COLOR_CAI</t>
+  </si>
+  <si>
+    <t>彩色</t>
+  </si>
+  <si>
+    <t>COLOR_MAX</t>
+  </si>
+  <si>
+    <t>最大品质，新增+1</t>
+  </si>
+  <si>
+    <t>SysSoundID</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>BTN_CLICK</t>
+  </si>
+  <si>
+    <t>按钮点击</t>
+  </si>
+  <si>
+    <t>CommonEffectID</t>
+  </si>
+  <si>
+    <t>COMMON_EFFECT_1</t>
+  </si>
+  <si>
+    <t>特效1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,7 +216,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,14 +224,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +239,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +247,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +255,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +263,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,14 +271,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +294,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -251,14 +302,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,47 +317,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,216 +677,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1109,45 +1172,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.8761904761905" customWidth="1"/>
-    <col min="4" max="5" width="14.1238095238095" customWidth="1"/>
-    <col min="6" max="6" width="9.37142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5047619047619" customWidth="1"/>
-    <col min="9" max="9" width="5.24761904761905" customWidth="1"/>
-    <col min="10" max="10" width="12.1238095238095" customWidth="1"/>
-    <col min="11" max="11" width="15.1238095238095" customWidth="1"/>
+    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1159,67 +1222,67 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1227,108 +1290,43 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="8:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="8:11">
-      <c r="H6" t="s">
+      <c r="K8" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="8:11">
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="8:11">
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1339,4 +1337,583 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="31.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="85.5" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1000002</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="40.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D5">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/GameConfig/Datas/__enums__.xlsx
+++ b/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31198DA-2FEF-4CA5-8C0D-576187BD7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
     <sheet name="道具品质" sheetId="2" r:id="rId2"/>
     <sheet name="音效枚举" sheetId="3" r:id="rId3"/>
     <sheet name="特效枚举" sheetId="4" r:id="rId4"/>
+    <sheet name="语言地区" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -192,19 +199,33 @@
   </si>
   <si>
     <t>特效1</t>
+  </si>
+  <si>
+    <t>LocalizationType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,151 +234,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,192 +258,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -574,255 +286,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,59 +314,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -909,6 +358,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,32 +618,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1213,15 +665,15 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +729,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1294,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
         <v>24</v>
       </c>
@@ -1333,38 +785,37 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="31.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.58203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1386,15 +837,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="85.5" spans="1:12">
+    <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +901,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1473,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1543,7 +994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1557,7 +1008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1589,21 +1040,20 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
@@ -1613,12 +1063,12 @@
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1640,15 +1090,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="57" spans="1:12">
+    <row r="3" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1154,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1724,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1739,48 +1189,47 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="40.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="42.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1802,15 +1251,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:12">
+    <row r="3" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1315,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1876,9 +1325,6 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1892,28 +1338,179 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5EC892-BAF9-49FE-90E4-B9A2751CAD66}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="20.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D4" xr:uid="{CB4A0DB5-7544-4D62-BCAF-ED88F094769C}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GameConfig/Datas/__enums__.xlsx
+++ b/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31198DA-2FEF-4CA5-8C0D-576187BD7D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -201,31 +195,71 @@
     <t>特效1</t>
   </si>
   <si>
-    <t>LocalizationType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>LocalAreaType</t>
   </si>
   <si>
     <t>CN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>欧美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>港澳台</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>INDO</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>占位符（新增+1）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,19 +271,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +428,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,13 +642,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +903,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,38 +915,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -358,9 +980,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -618,118 +1237,118 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
+    <col min="4" max="5" width="14.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" customWidth="1"/>
-    <col min="11" max="11" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="99" customHeight="1" spans="1:12">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -746,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -754,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -762,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="H7" t="s">
         <v>23</v>
       </c>
@@ -770,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="H8" t="s">
         <v>24</v>
       </c>
@@ -785,37 +1404,38 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5833333333333" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.58203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.0833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5833333333333" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -837,15 +1457,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" ht="85.5" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -901,7 +1521,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -924,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
@@ -938,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
@@ -952,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
@@ -966,7 +1586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
@@ -980,7 +1600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
@@ -994,7 +1614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1022,7 +1642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1040,20 +1660,21 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
@@ -1063,12 +1684,12 @@
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,15 +1711,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" ht="57" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1154,8 +1775,8 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1164,24 +1785,24 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="1">
         <v>1000001</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H5" s="4" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="1">
         <v>1000002</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1189,47 +1810,48 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="40.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.0833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="42.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.0833333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1251,15 +1873,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" ht="28.5" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1937,8 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1325,60 +1947,65 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H5" s="4"/>
-      <c r="K5" s="4"/>
+    <row r="5" spans="1:12">
+      <c r="H5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5EC892-BAF9-49FE-90E4-B9A2751CAD66}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.66666666666667" style="1"/>
+    <col min="2" max="2" width="20.5833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4166666666667" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.66666666666667" style="1"/>
+    <col min="9" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.66666666666667" style="1"/>
+    <col min="11" max="11" width="31.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,15 +2027,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" ht="85.5" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1464,8 +2091,8 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1474,43 +2101,127 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H5" s="8" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D4" xr:uid="{CB4A0DB5-7544-4D62-BCAF-ED88F094769C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D4">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>